--- a/hallsWithAllData1.xlsx
+++ b/hallsWithAllData1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="26">
   <si>
     <t>اليوم الاول</t>
   </si>
@@ -62,6 +62,9 @@
     <t>A1</t>
   </si>
   <si>
+    <t>رابعه حاسبات</t>
+  </si>
+  <si>
     <t>A2</t>
   </si>
   <si>
@@ -90,18 +93,6 @@
   </si>
   <si>
     <t>اعدادي هندسه</t>
-  </si>
-  <si>
-    <t>رابعه حاسبات</t>
-  </si>
-  <si>
-    <t>تانيه اتصالات</t>
-  </si>
-  <si>
-    <t>تالته حاسبات</t>
-  </si>
-  <si>
-    <t>اولي اتصالات</t>
   </si>
 </sst>
 </file>
@@ -585,31 +576,31 @@
         <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="C4" s="3">
+        <v>616</v>
+      </c>
+      <c r="D4" s="3">
+        <v>665</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="3">
-        <v>616</v>
-      </c>
-      <c r="G4" s="3">
-        <v>665</v>
+        <v>11</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="3">
-        <v>441</v>
-      </c>
-      <c r="J4" s="3">
-        <v>520</v>
+        <v>11</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="K4" s="3">
         <v>80</v>
@@ -623,7 +614,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>11</v>
@@ -644,13 +635,13 @@
         <v>13</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="3">
-        <v>521</v>
-      </c>
-      <c r="J5" s="3">
-        <v>555</v>
+        <v>11</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="K5" s="3">
         <v>35</v>
@@ -664,7 +655,7 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>11</v>
@@ -705,7 +696,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>11</v>
@@ -746,7 +737,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>11</v>
@@ -767,13 +758,13 @@
         <v>13</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="3">
-        <v>556</v>
-      </c>
-      <c r="J8" s="3">
-        <v>595</v>
+        <v>11</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="K8" s="3">
         <v>40</v>
@@ -787,7 +778,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>11</v>
@@ -808,13 +799,13 @@
         <v>13</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="3">
-        <v>596</v>
-      </c>
-      <c r="J9" s="3">
-        <v>615</v>
+        <v>11</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="K9" s="3">
         <v>30</v>
@@ -828,7 +819,7 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>11</v>
@@ -869,7 +860,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>11</v>
@@ -910,7 +901,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>11</v>
@@ -951,10 +942,10 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
@@ -972,13 +963,13 @@
         <v>13</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="3">
-        <v>321</v>
-      </c>
-      <c r="J13" s="3">
-        <v>440</v>
+        <v>11</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="K13" s="3">
         <v>400</v>

--- a/hallsWithAllData1.xlsx
+++ b/hallsWithAllData1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="53">
   <si>
     <t>اليوم الاول</t>
   </si>
@@ -47,7 +47,7 @@
     <t>رقم الدور</t>
   </si>
   <si>
-    <t>A0</t>
+    <t>A1</t>
   </si>
   <si>
     <t>فارغه</t>
@@ -59,40 +59,121 @@
     <t>---</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>رابعه حاسبات</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>B0</t>
+    <t>A23</t>
+  </si>
+  <si>
+    <t>A231</t>
+  </si>
+  <si>
+    <t>A232</t>
+  </si>
+  <si>
+    <t>ثالثه عمارة</t>
+  </si>
+  <si>
+    <t>A233</t>
+  </si>
+  <si>
+    <t>A234</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>المسرح 1</t>
+  </si>
+  <si>
+    <t>ثالثه مدنى عام</t>
+  </si>
+  <si>
+    <t>المسرح2</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
+    <t>رابعه عمارة</t>
+  </si>
+  <si>
     <t>B2</t>
   </si>
   <si>
     <t>B3</t>
   </si>
   <si>
-    <t>C0</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>اعدادي هندسه</t>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>ثانيه مدنى</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>صالة A</t>
+  </si>
+  <si>
+    <t>اولى مدنى</t>
+  </si>
+  <si>
+    <t>صالة B</t>
+  </si>
+  <si>
+    <t>صالة C</t>
+  </si>
+  <si>
+    <t>صالة D</t>
+  </si>
+  <si>
+    <t>ثانيه مساحه</t>
+  </si>
+  <si>
+    <t>صالة E</t>
+  </si>
+  <si>
+    <t>صالة F</t>
+  </si>
+  <si>
+    <t>مدرج عمارة</t>
+  </si>
+  <si>
+    <t>رابعه مساحه</t>
+  </si>
+  <si>
+    <t>رابعه مدنى انشاءات</t>
+  </si>
+  <si>
+    <t>ثالثة مدنى انشاءات</t>
+  </si>
+  <si>
+    <t>رابعه مدنى عام</t>
+  </si>
+  <si>
+    <t>اولى مساحه</t>
+  </si>
+  <si>
+    <t>ثالثه مساحه</t>
+  </si>
+  <si>
+    <t>اولى عمارة</t>
+  </si>
+  <si>
+    <t>ثانيه عمارة</t>
   </si>
 </sst>
 </file>
@@ -460,7 +541,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -562,7 +643,7 @@
         <v>13</v>
       </c>
       <c r="K3" s="3">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L3" s="3">
         <v>0</v>
@@ -576,13 +657,13 @@
         <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3">
-        <v>616</v>
-      </c>
-      <c r="D4" s="3">
-        <v>665</v>
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>11</v>
@@ -603,18 +684,18 @@
         <v>13</v>
       </c>
       <c r="K4" s="3">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="L4" s="3">
         <v>0</v>
       </c>
       <c r="M4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>11</v>
@@ -644,27 +725,27 @@
         <v>13</v>
       </c>
       <c r="K5" s="3">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="L5" s="3">
         <v>0</v>
       </c>
       <c r="M5" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>13</v>
+      <c r="C6" s="3">
+        <v>320001</v>
+      </c>
+      <c r="D6" s="3">
+        <v>320036</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>11</v>
@@ -685,10 +766,10 @@
         <v>13</v>
       </c>
       <c r="K6" s="3">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="3">
         <v>0</v>
@@ -699,13 +780,13 @@
         <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="C7" s="3">
+        <v>320037</v>
+      </c>
+      <c r="D7" s="3">
+        <v>320056</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>11</v>
@@ -726,13 +807,13 @@
         <v>13</v>
       </c>
       <c r="K7" s="3">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -740,13 +821,13 @@
         <v>19</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="C8" s="3">
+        <v>320057</v>
+      </c>
+      <c r="D8" s="3">
+        <v>320080</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>11</v>
@@ -767,13 +848,13 @@
         <v>13</v>
       </c>
       <c r="K8" s="3">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="L8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -781,13 +862,13 @@
         <v>20</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="C9" s="3">
+        <v>320081</v>
+      </c>
+      <c r="D9" s="3">
+        <v>320121</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>11</v>
@@ -808,13 +889,13 @@
         <v>13</v>
       </c>
       <c r="K9" s="3">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="L9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -822,22 +903,22 @@
         <v>21</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>13</v>
+        <v>22</v>
+      </c>
+      <c r="C10" s="3">
+        <v>33001</v>
+      </c>
+      <c r="D10" s="3">
+        <v>33036</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>13</v>
+        <v>45</v>
+      </c>
+      <c r="F10" s="3">
+        <v>410001</v>
+      </c>
+      <c r="G10" s="3">
+        <v>410036</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>11</v>
@@ -849,36 +930,36 @@
         <v>13</v>
       </c>
       <c r="K10" s="3">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="L10" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>13</v>
+      <c r="C11" s="3">
+        <v>33037</v>
+      </c>
+      <c r="D11" s="3">
+        <v>33068</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>13</v>
+        <v>45</v>
+      </c>
+      <c r="F11" s="3">
+        <v>410037</v>
+      </c>
+      <c r="G11" s="3">
+        <v>410071</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>11</v>
@@ -890,27 +971,27 @@
         <v>13</v>
       </c>
       <c r="K11" s="3">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="L11" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>13</v>
+        <v>25</v>
+      </c>
+      <c r="C12" s="3">
+        <v>42001</v>
+      </c>
+      <c r="D12" s="3">
+        <v>42040</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>11</v>
@@ -934,24 +1015,24 @@
         <v>40</v>
       </c>
       <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
         <v>2</v>
-      </c>
-      <c r="M12" s="3">
-        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="3">
-        <v>1</v>
+        <v>42041</v>
       </c>
       <c r="D13" s="3">
-        <v>320</v>
+        <v>42068</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>11</v>
@@ -972,13 +1053,628 @@
         <v>13</v>
       </c>
       <c r="K13" s="3">
-        <v>400</v>
+        <v>28</v>
       </c>
       <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
         <v>2</v>
       </c>
-      <c r="M13" s="3">
-        <v>1</v>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="3">
+        <v>42069</v>
+      </c>
+      <c r="D14" s="3">
+        <v>42096</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="3">
+        <v>28</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="3">
+        <v>42097</v>
+      </c>
+      <c r="D15" s="3">
+        <v>42134</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="3">
+        <v>38</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="3">
+        <v>23001</v>
+      </c>
+      <c r="D16" s="3">
+        <v>23028</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="3">
+        <v>28</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3">
+        <v>23029</v>
+      </c>
+      <c r="D17" s="3">
+        <v>23056</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="3">
+        <v>431001</v>
+      </c>
+      <c r="G17" s="3">
+        <v>431028</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" s="3">
+        <v>28</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="3">
+        <v>23057</v>
+      </c>
+      <c r="D18" s="3">
+        <v>23096</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="3">
+        <v>431029</v>
+      </c>
+      <c r="G18" s="3">
+        <v>431068</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="3">
+        <v>40</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="3">
+        <v>23097</v>
+      </c>
+      <c r="D19" s="3">
+        <v>23144</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="3">
+        <v>431069</v>
+      </c>
+      <c r="G19" s="3">
+        <v>431111</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" s="3">
+        <v>310001</v>
+      </c>
+      <c r="J19" s="3">
+        <v>310048</v>
+      </c>
+      <c r="K19" s="3">
+        <v>48</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="3">
+        <v>23145</v>
+      </c>
+      <c r="D20" s="3">
+        <v>23188</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="3">
+        <v>331001</v>
+      </c>
+      <c r="G20" s="3">
+        <v>331048</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I20" s="3">
+        <v>310049</v>
+      </c>
+      <c r="J20" s="3">
+        <v>310090</v>
+      </c>
+      <c r="K20" s="3">
+        <v>48</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="3">
+        <v>331049</v>
+      </c>
+      <c r="G21" s="3">
+        <v>331082</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" s="3">
+        <v>40</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="3">
+        <v>13001</v>
+      </c>
+      <c r="D22" s="3">
+        <v>13055</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="3">
+        <v>432001</v>
+      </c>
+      <c r="G22" s="3">
+        <v>432055</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22" s="3">
+        <v>120001</v>
+      </c>
+      <c r="J22" s="3">
+        <v>120055</v>
+      </c>
+      <c r="K22" s="3">
+        <v>55</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="3">
+        <v>13056</v>
+      </c>
+      <c r="D23" s="3">
+        <v>13120</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="3">
+        <v>432056</v>
+      </c>
+      <c r="G23" s="3">
+        <v>432098</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I23" s="3">
+        <v>120056</v>
+      </c>
+      <c r="J23" s="3">
+        <v>120100</v>
+      </c>
+      <c r="K23" s="3">
+        <v>65</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="3">
+        <v>13121</v>
+      </c>
+      <c r="D24" s="3">
+        <v>13157</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="3">
+        <v>110001</v>
+      </c>
+      <c r="G24" s="3">
+        <v>110050</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I24" s="3">
+        <v>220001</v>
+      </c>
+      <c r="J24" s="3">
+        <v>220050</v>
+      </c>
+      <c r="K24" s="3">
+        <v>50</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="3">
+        <v>210001</v>
+      </c>
+      <c r="D25" s="3">
+        <v>210054</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="3">
+        <v>110051</v>
+      </c>
+      <c r="G25" s="3">
+        <v>110099</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I25" s="3">
+        <v>220051</v>
+      </c>
+      <c r="J25" s="3">
+        <v>220100</v>
+      </c>
+      <c r="K25" s="3">
+        <v>60</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" s="3">
+        <v>10</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="3">
+        <v>10</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K28" s="3">
+        <v>38</v>
+      </c>
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/hallsWithAllData1.xlsx
+++ b/hallsWithAllData1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="49">
   <si>
     <t>اليوم الاول</t>
   </si>
@@ -62,19 +62,7 @@
     <t>A23</t>
   </si>
   <si>
-    <t>A231</t>
-  </si>
-  <si>
-    <t>A232</t>
-  </si>
-  <si>
     <t>ثالثه عمارة</t>
-  </si>
-  <si>
-    <t>A233</t>
-  </si>
-  <si>
-    <t>A234</t>
   </si>
   <si>
     <t>A4</t>
@@ -695,7 +683,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>11</v>
@@ -736,10 +724,10 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" s="3">
         <v>320001</v>
@@ -777,10 +765,10 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" s="3">
         <v>320037</v>
@@ -818,10 +806,10 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" s="3">
         <v>320057</v>
@@ -859,10 +847,10 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" s="3">
         <v>320081</v>
@@ -900,10 +888,10 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C10" s="3">
         <v>33001</v>
@@ -912,7 +900,7 @@
         <v>33036</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F10" s="3">
         <v>410001</v>
@@ -941,10 +929,10 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C11" s="3">
         <v>33037</v>
@@ -953,7 +941,7 @@
         <v>33068</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F11" s="3">
         <v>410037</v>
@@ -982,10 +970,10 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C12" s="3">
         <v>42001</v>
@@ -1023,10 +1011,10 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C13" s="3">
         <v>42041</v>
@@ -1064,10 +1052,10 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C14" s="3">
         <v>42069</v>
@@ -1105,10 +1093,10 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C15" s="3">
         <v>42097</v>
@@ -1146,10 +1134,10 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C16" s="3">
         <v>23001</v>
@@ -1187,10 +1175,10 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C17" s="3">
         <v>23029</v>
@@ -1199,7 +1187,7 @@
         <v>23056</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F17" s="3">
         <v>431001</v>
@@ -1228,10 +1216,10 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C18" s="3">
         <v>23057</v>
@@ -1240,7 +1228,7 @@
         <v>23096</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F18" s="3">
         <v>431029</v>
@@ -1269,10 +1257,10 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C19" s="3">
         <v>23097</v>
@@ -1281,7 +1269,7 @@
         <v>23144</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F19" s="3">
         <v>431069</v>
@@ -1290,7 +1278,7 @@
         <v>431111</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I19" s="3">
         <v>310001</v>
@@ -1310,10 +1298,10 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C20" s="3">
         <v>23145</v>
@@ -1322,7 +1310,7 @@
         <v>23188</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F20" s="3">
         <v>331001</v>
@@ -1331,7 +1319,7 @@
         <v>331048</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I20" s="3">
         <v>310049</v>
@@ -1351,7 +1339,7 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>11</v>
@@ -1363,7 +1351,7 @@
         <v>13</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F21" s="3">
         <v>331049</v>
@@ -1392,10 +1380,10 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C22" s="3">
         <v>13001</v>
@@ -1404,7 +1392,7 @@
         <v>13055</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F22" s="3">
         <v>432001</v>
@@ -1413,7 +1401,7 @@
         <v>432055</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I22" s="3">
         <v>120001</v>
@@ -1433,10 +1421,10 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C23" s="3">
         <v>13056</v>
@@ -1445,7 +1433,7 @@
         <v>13120</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F23" s="3">
         <v>432056</v>
@@ -1454,7 +1442,7 @@
         <v>432098</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I23" s="3">
         <v>120056</v>
@@ -1474,10 +1462,10 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C24" s="3">
         <v>13121</v>
@@ -1486,7 +1474,7 @@
         <v>13157</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F24" s="3">
         <v>110001</v>
@@ -1495,7 +1483,7 @@
         <v>110050</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I24" s="3">
         <v>220001</v>
@@ -1515,10 +1503,10 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C25" s="3">
         <v>210001</v>
@@ -1527,7 +1515,7 @@
         <v>210054</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F25" s="3">
         <v>110051</v>
@@ -1536,7 +1524,7 @@
         <v>110099</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I25" s="3">
         <v>220051</v>
@@ -1556,7 +1544,7 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>11</v>
@@ -1597,7 +1585,7 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>11</v>
@@ -1638,7 +1626,7 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>11</v>
